--- a/data/trans_orig/P14A14-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A14-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7AB5C81-00C2-481B-8184-376854AF192A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5503C1FF-BB4D-405B-B016-FB7CD403D678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EC440B40-49BD-47BB-8C54-41913092D1C6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2101B56D-C23F-43C8-81E8-039FF402905B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="184">
   <si>
     <t>Población que recibe medicación o terapia por fibromialgia en 2012 (Tasa respuesta: 1,41%)</t>
   </si>
@@ -102,7 +102,7 @@
     <t>92,41%</t>
   </si>
   <si>
-    <t>63,55%</t>
+    <t>67,16%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -114,7 +114,7 @@
     <t>7,59%</t>
   </si>
   <si>
-    <t>36,45%</t>
+    <t>32,84%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -141,16 +141,16 @@
     <t>84,55%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>65,18%</t>
+    <t>63,22%</t>
   </si>
   <si>
     <t>95,58%</t>
@@ -162,10 +162,10 @@
     <t>15,45%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>13,92%</t>
@@ -174,7 +174,7 @@
     <t>4,42%</t>
   </si>
   <si>
-    <t>34,82%</t>
+    <t>36,78%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -183,13 +183,13 @@
     <t>85,55%</t>
   </si>
   <si>
-    <t>35,4%</t>
+    <t>35,3%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>64,6%</t>
+    <t>64,7%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -207,31 +207,31 @@
     <t>89,96%</t>
   </si>
   <si>
-    <t>50,51%</t>
+    <t>55,88%</t>
   </si>
   <si>
     <t>74,42%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>49,49%</t>
+    <t>44,12%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -240,91 +240,91 @@
     <t>87,63%</t>
   </si>
   <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>42,3%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -336,61 +336,61 @@
     <t>65,93%</t>
   </si>
   <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
   </si>
   <si>
     <t>70,86%</t>
   </si>
   <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
   </si>
   <si>
     <t>29,14%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>66,02%</t>
+    <t>61,61%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>63,74%</t>
+    <t>69,98%</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
-    <t>33,98%</t>
+    <t>38,39%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>36,26%</t>
+    <t>30,02%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -405,7 +405,7 @@
     <t>90,14%</t>
   </si>
   <si>
-    <t>57,05%</t>
+    <t>51,68%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -414,43 +414,43 @@
     <t>9,86%</t>
   </si>
   <si>
-    <t>42,95%</t>
+    <t>48,32%</t>
   </si>
   <si>
     <t>68,34%</t>
   </si>
   <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
   </si>
   <si>
     <t>67,8%</t>
@@ -468,121 +468,127 @@
     <t>82,74%</t>
   </si>
   <si>
-    <t>55,14%</t>
+    <t>47,7%</t>
   </si>
   <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>17,26%</t>
   </si>
   <si>
-    <t>44,86%</t>
+    <t>52,3%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>34,37%</t>
+    <t>33,79%</t>
   </si>
   <si>
     <t>84,48%</t>
   </si>
   <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>65,63%</t>
+    <t>66,21%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>87,75%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>12,25%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D31FD0A-00EF-4795-9753-D6D29172CFE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7FD8CF-B9C3-4359-9961-22F327989E40}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2489,7 +2495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D377F64F-A2E4-4909-9A39-11505E74204A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4744BB53-45C9-401F-8D23-C2C01FC91678}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3874,10 +3880,10 @@
         <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3898,13 @@
         <v>3179</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -3907,13 +3913,13 @@
         <v>21822</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -3922,13 +3928,13 @@
         <v>25001</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A14-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A14-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5503C1FF-BB4D-405B-B016-FB7CD403D678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA969DF1-83F9-4D73-B37B-7C9911BCA40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2101B56D-C23F-43C8-81E8-039FF402905B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FEF71304-90E9-47E5-BCA7-7FDA998B4D59}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="182">
   <si>
     <t>Población que recibe medicación o terapia por fibromialgia en 2012 (Tasa respuesta: 1,41%)</t>
   </si>
@@ -102,7 +102,7 @@
     <t>92,41%</t>
   </si>
   <si>
-    <t>67,16%</t>
+    <t>66,78%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -114,7 +114,7 @@
     <t>7,59%</t>
   </si>
   <si>
-    <t>32,84%</t>
+    <t>33,22%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -123,13 +123,13 @@
     <t>80,69%</t>
   </si>
   <si>
-    <t>21,39%</t>
+    <t>20,47%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>78,61%</t>
+    <t>79,53%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -141,19 +141,19 @@
     <t>84,55%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -162,19 +162,19 @@
     <t>15,45%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -183,13 +183,13 @@
     <t>85,55%</t>
   </si>
   <si>
-    <t>35,3%</t>
+    <t>34,71%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>64,7%</t>
+    <t>65,29%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -207,31 +207,31 @@
     <t>89,96%</t>
   </si>
   <si>
-    <t>55,88%</t>
+    <t>55,35%</t>
   </si>
   <si>
     <t>74,42%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>10,04%</t>
   </si>
   <si>
-    <t>44,12%</t>
+    <t>44,65%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -240,43 +240,43 @@
     <t>87,63%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>27,13%</t>
+    <t>14,4%</t>
   </si>
   <si>
     <t>86,53%</t>
@@ -285,19 +285,19 @@
     <t>87,73%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>42,3%</t>
@@ -306,91 +306,91 @@
     <t>13,47%</t>
   </si>
   <si>
-    <t>72,87%</t>
+    <t>85,6%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por fibromialgia en 2015 (Tasa respuesta: 1,95%)</t>
+    <t>Población que recibe medicación o terapia por fibromialgia en 2016 (Tasa respuesta: 1,95%)</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>70,86%</t>
   </si>
   <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
   </si>
   <si>
     <t>29,14%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>61,61%</t>
+    <t>67,8%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>69,98%</t>
+    <t>68,42%</t>
   </si>
   <si>
     <t>8,09%</t>
   </si>
   <si>
-    <t>38,39%</t>
+    <t>32,2%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>30,02%</t>
+    <t>31,58%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -405,7 +405,7 @@
     <t>90,14%</t>
   </si>
   <si>
-    <t>51,68%</t>
+    <t>58,05%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -414,13 +414,13 @@
     <t>9,86%</t>
   </si>
   <si>
-    <t>48,32%</t>
+    <t>41,95%</t>
   </si>
   <si>
     <t>68,34%</t>
   </si>
   <si>
-    <t>44,55%</t>
+    <t>37,17%</t>
   </si>
   <si>
     <t>92,1%</t>
@@ -429,10 +429,10 @@
     <t>72,33%</t>
   </si>
   <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>31,66%</t>
@@ -441,154 +441,148 @@
     <t>7,9%</t>
   </si>
   <si>
-    <t>55,45%</t>
+    <t>62,83%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
     <t>82,69%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>47,7%</t>
+    <t>55,1%</t>
   </si>
   <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>17,26%</t>
   </si>
   <si>
-    <t>52,3%</t>
+    <t>44,9%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>33,79%</t>
+    <t>34,1%</t>
   </si>
   <si>
     <t>84,48%</t>
   </si>
   <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>66,21%</t>
+    <t>65,9%</t>
   </si>
   <si>
     <t>15,52%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>82,03%</t>
   </si>
   <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>17,97%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7FD8CF-B9C3-4359-9961-22F327989E40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C746BFE-F712-4523-8335-63D6233E1576}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2495,7 +2489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4744BB53-45C9-401F-8D23-C2C01FC91678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF90896-D4E1-4981-A238-1779EB048602}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3401,10 +3395,10 @@
         <v>4303</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>17</v>
@@ -3416,10 +3410,10 @@
         <v>4303</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>17</v>
@@ -3450,13 +3444,13 @@
         <v>2043</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3465,13 +3459,13 @@
         <v>2043</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,10 +3546,10 @@
         <v>10099</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>17</v>
@@ -3567,13 +3561,13 @@
         <v>10099</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3597,13 @@
         <v>2107</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -3618,13 +3612,13 @@
         <v>3301</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,10 +3686,10 @@
         <v>5826</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>17</v>
@@ -3707,13 +3701,13 @@
         <v>44228</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3725,10 +3719,10 @@
         <v>33</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3737,13 @@
         <v>1019</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -3758,13 +3752,13 @@
         <v>8125</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -3776,10 +3770,10 @@
         <v>40</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3841,13 @@
         <v>10869</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H28" s="7">
         <v>95</v>
@@ -3862,13 +3856,13 @@
         <v>103246</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M28" s="7">
         <v>105</v>
@@ -3877,13 +3871,13 @@
         <v>114115</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3892,13 @@
         <v>3179</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>20</v>
@@ -3913,13 +3907,13 @@
         <v>21822</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>23</v>
@@ -3928,13 +3922,13 @@
         <v>25001</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
